--- a/tests/WeatherScraperTests/Sheets/TestSheet_WeatherStat.xlsx
+++ b/tests/WeatherScraperTests/Sheets/TestSheet_WeatherStat.xlsx
@@ -610,7 +610,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +620,8 @@
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
     <col min="11" max="11" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -681,10 +683,10 @@
         <v>42891</v>
       </c>
       <c r="I2">
+        <v>45.467039999999997</v>
+      </c>
+      <c r="J2">
         <v>8.8957999999999995</v>
-      </c>
-      <c r="J2">
-        <v>45.467039999999997</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -710,10 +712,10 @@
         <v>42882</v>
       </c>
       <c r="I3">
+        <v>45.467509999999997</v>
+      </c>
+      <c r="J3">
         <v>8.8872800000000005</v>
-      </c>
-      <c r="J3">
-        <v>45.467509999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -739,10 +741,10 @@
         <v>42899</v>
       </c>
       <c r="I4">
+        <v>45.466577399999998</v>
+      </c>
+      <c r="J4">
         <v>8.8630783999999991</v>
-      </c>
-      <c r="J4">
-        <v>45.466577399999998</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -768,10 +770,10 @@
         <v>42893</v>
       </c>
       <c r="I5">
+        <v>45.4679</v>
+      </c>
+      <c r="J5">
         <v>8.8910300000000007</v>
-      </c>
-      <c r="J5">
-        <v>45.4679</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -797,10 +799,10 @@
         <v>42989</v>
       </c>
       <c r="I6">
+        <v>45.474809999999998</v>
+      </c>
+      <c r="J6">
         <v>8.8854399999999991</v>
-      </c>
-      <c r="J6">
-        <v>45.474809999999998</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -826,10 +828,10 @@
         <v>42957</v>
       </c>
       <c r="I7">
+        <v>45.477089999999997</v>
+      </c>
+      <c r="J7">
         <v>8.8810000000000002</v>
-      </c>
-      <c r="J7">
-        <v>45.477089999999997</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -855,10 +857,10 @@
         <v>42961</v>
       </c>
       <c r="I8">
+        <v>45.465539999999997</v>
+      </c>
+      <c r="J8">
         <v>8.8844999999999992</v>
-      </c>
-      <c r="J8">
-        <v>45.465539999999997</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -884,10 +886,10 @@
         <v>42977</v>
       </c>
       <c r="I9">
+        <v>45.473480000000002</v>
+      </c>
+      <c r="J9">
         <v>8.8820499999999996</v>
-      </c>
-      <c r="J9">
-        <v>45.473480000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -913,10 +915,10 @@
         <v>42997</v>
       </c>
       <c r="I10">
+        <v>45.456430699999999</v>
+      </c>
+      <c r="J10">
         <v>8.8927075999999996</v>
-      </c>
-      <c r="J10">
-        <v>45.456430699999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -942,10 +944,10 @@
         <v>43005</v>
       </c>
       <c r="I11">
+        <v>45.4592502</v>
+      </c>
+      <c r="J11">
         <v>8.8477952999999996</v>
-      </c>
-      <c r="J11">
-        <v>45.4592502</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -971,10 +973,10 @@
         <v>41243</v>
       </c>
       <c r="I12">
+        <v>45.530320000000003</v>
+      </c>
+      <c r="J12">
         <v>8.7436600000000002</v>
-      </c>
-      <c r="J12">
-        <v>45.530320000000003</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1000,10 +1002,10 @@
         <v>41270</v>
       </c>
       <c r="I13">
+        <v>45.52702</v>
+      </c>
+      <c r="J13">
         <v>8.7431599999999996</v>
-      </c>
-      <c r="J13">
-        <v>45.52702</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1029,10 +1031,10 @@
         <v>41290</v>
       </c>
       <c r="I14">
+        <v>45.537150699999998</v>
+      </c>
+      <c r="J14">
         <v>8.7463671999999999</v>
-      </c>
-      <c r="J14">
-        <v>45.537150699999998</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1058,10 +1060,10 @@
         <v>42207</v>
       </c>
       <c r="I15">
+        <v>45.516225400000003</v>
+      </c>
+      <c r="J15">
         <v>9.3595074</v>
-      </c>
-      <c r="J15">
-        <v>45.516225400000003</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1087,10 +1089,10 @@
         <v>42229</v>
       </c>
       <c r="I16">
+        <v>45.518187099999999</v>
+      </c>
+      <c r="J16">
         <v>9.3643143000000002</v>
-      </c>
-      <c r="J16">
-        <v>45.518187099999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1116,10 +1118,10 @@
         <v>42229</v>
       </c>
       <c r="I17">
+        <v>45.504179999999998</v>
+      </c>
+      <c r="J17">
         <v>9.3532005999999992</v>
-      </c>
-      <c r="J17">
-        <v>45.504179999999998</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1145,10 +1147,10 @@
         <v>41937</v>
       </c>
       <c r="I18">
+        <v>45.508448999999999</v>
+      </c>
+      <c r="J18">
         <v>9.3517498000000003</v>
-      </c>
-      <c r="J18">
-        <v>45.508448999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1174,10 +1176,10 @@
         <v>42507</v>
       </c>
       <c r="I19">
+        <v>45.516418899999998</v>
+      </c>
+      <c r="J19">
         <v>9.3600045000000005</v>
-      </c>
-      <c r="J19">
-        <v>45.516418899999998</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1203,10 +1205,10 @@
         <v>42562</v>
       </c>
       <c r="I20">
+        <v>45.519188700000001</v>
+      </c>
+      <c r="J20">
         <v>9.3619763000000003</v>
-      </c>
-      <c r="J20">
-        <v>45.519188700000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1232,10 +1234,10 @@
         <v>119341</v>
       </c>
       <c r="I21">
+        <v>45.521684899999997</v>
+      </c>
+      <c r="J21">
         <v>9.3620354999999993</v>
-      </c>
-      <c r="J21">
-        <v>45.521684899999997</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1261,10 +1263,10 @@
         <v>119957</v>
       </c>
       <c r="I22">
+        <v>45.521684899999997</v>
+      </c>
+      <c r="J22">
         <v>9.3620354999999993</v>
-      </c>
-      <c r="J22">
-        <v>45.521684899999997</v>
       </c>
     </row>
   </sheetData>
